--- a/Ardita/Upload/import arsip.xlsx
+++ b/Ardita/Upload/import arsip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDS.NDS-LPT-0328\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0480EB44-7D5B-4679-BCEC-69B2FAA28F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBDFD83-155A-4214-B434-635A4CC44745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF5F26B1-4311-4804-AE8C-89F22666E788}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF5F26B1-4311-4804-AE8C-89F22666E788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,8 +659,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,29 +978,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87426CAC-D7EF-4772-AF05-20CF5C1BACE9}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1031,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1043,7 +1044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1074,7 +1075,7 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>43850</v>
       </c>
       <c r="L2">
@@ -1087,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1118,7 +1119,7 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>43851</v>
       </c>
       <c r="L3">
@@ -1131,7 +1132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1162,7 +1163,7 @@
       <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>43852</v>
       </c>
       <c r="L4">
@@ -1175,7 +1176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1206,7 +1207,7 @@
       <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>43853</v>
       </c>
       <c r="L5">
@@ -1219,7 +1220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1250,7 +1251,7 @@
       <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>43854</v>
       </c>
       <c r="L6">
@@ -1263,7 +1264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1294,7 +1295,7 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>43855</v>
       </c>
       <c r="L7">
@@ -1307,7 +1308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1338,7 +1339,7 @@
       <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>44197</v>
       </c>
       <c r="L8">
@@ -1351,7 +1352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1382,7 +1383,7 @@
       <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>44198</v>
       </c>
       <c r="L9">
@@ -1395,7 +1396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1426,7 +1427,7 @@
       <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>44199</v>
       </c>
       <c r="L10">
@@ -1439,7 +1440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1470,7 +1471,7 @@
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>44200</v>
       </c>
       <c r="L11">
@@ -1483,7 +1484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1514,7 +1515,7 @@
       <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>44201</v>
       </c>
       <c r="L12">
@@ -1527,7 +1528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1558,7 +1559,7 @@
       <c r="J13" t="s">
         <v>20</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>44202</v>
       </c>
       <c r="L13">
@@ -1571,7 +1572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1602,7 +1603,7 @@
       <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>44568</v>
       </c>
       <c r="L14">
@@ -1615,7 +1616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1646,7 +1647,7 @@
       <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>44569</v>
       </c>
       <c r="L15">
@@ -1659,7 +1660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1690,7 +1691,7 @@
       <c r="J16" t="s">
         <v>20</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>44570</v>
       </c>
       <c r="L16">
@@ -1703,7 +1704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1734,7 +1735,7 @@
       <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>44571</v>
       </c>
       <c r="L17">
@@ -1747,7 +1748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1778,7 +1779,7 @@
       <c r="J18" t="s">
         <v>20</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>44572</v>
       </c>
       <c r="L18">
@@ -1791,7 +1792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1822,7 +1823,7 @@
       <c r="J19" t="s">
         <v>20</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>44573</v>
       </c>
       <c r="L19">
@@ -1835,7 +1836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1866,7 +1867,7 @@
       <c r="J20" t="s">
         <v>20</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>44939</v>
       </c>
       <c r="L20">
@@ -1879,7 +1880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1910,7 +1911,7 @@
       <c r="J21" t="s">
         <v>20</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>44940</v>
       </c>
       <c r="L21">
@@ -1923,7 +1924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1954,7 +1955,7 @@
       <c r="J22" t="s">
         <v>20</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>44941</v>
       </c>
       <c r="L22">
@@ -1967,7 +1968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1998,7 +1999,7 @@
       <c r="J23" t="s">
         <v>20</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>44942</v>
       </c>
       <c r="L23">
@@ -2011,7 +2012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2042,7 +2043,7 @@
       <c r="J24" t="s">
         <v>20</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>44943</v>
       </c>
       <c r="L24">
@@ -2055,7 +2056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2086,7 +2087,7 @@
       <c r="J25" t="s">
         <v>20</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>44944</v>
       </c>
       <c r="L25">
@@ -2099,7 +2100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2130,7 +2131,7 @@
       <c r="J26" t="s">
         <v>20</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>44945</v>
       </c>
       <c r="L26">
@@ -2143,7 +2144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2174,7 +2175,7 @@
       <c r="J27" t="s">
         <v>20</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>44946</v>
       </c>
       <c r="L27">
@@ -2187,7 +2188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2218,7 +2219,7 @@
       <c r="J28" t="s">
         <v>20</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>44947</v>
       </c>
       <c r="L28">
@@ -2231,7 +2232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2262,7 +2263,7 @@
       <c r="J29" t="s">
         <v>20</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>44948</v>
       </c>
       <c r="L29">
@@ -2275,7 +2276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2306,7 +2307,7 @@
       <c r="J30" t="s">
         <v>20</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>44949</v>
       </c>
       <c r="L30">
@@ -2319,7 +2320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2350,7 +2351,7 @@
       <c r="J31" t="s">
         <v>20</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>43850</v>
       </c>
       <c r="L31">
@@ -2363,7 +2364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2394,7 +2395,7 @@
       <c r="J32" t="s">
         <v>20</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>43851</v>
       </c>
       <c r="L32">
@@ -2407,7 +2408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2438,7 +2439,7 @@
       <c r="J33" t="s">
         <v>20</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>43852</v>
       </c>
       <c r="L33">
@@ -2451,7 +2452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2482,7 +2483,7 @@
       <c r="J34" t="s">
         <v>20</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>43853</v>
       </c>
       <c r="L34">
@@ -2495,7 +2496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2526,7 +2527,7 @@
       <c r="J35" t="s">
         <v>20</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>43854</v>
       </c>
       <c r="L35">
@@ -2539,7 +2540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2570,7 +2571,7 @@
       <c r="J36" t="s">
         <v>20</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>43855</v>
       </c>
       <c r="L36">
@@ -2583,7 +2584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2614,7 +2615,7 @@
       <c r="J37" t="s">
         <v>20</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>44197</v>
       </c>
       <c r="L37">
@@ -2627,7 +2628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2658,7 +2659,7 @@
       <c r="J38" t="s">
         <v>20</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>44198</v>
       </c>
       <c r="L38">
@@ -2671,7 +2672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2702,7 +2703,7 @@
       <c r="J39" t="s">
         <v>20</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>44199</v>
       </c>
       <c r="L39">
@@ -2715,7 +2716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2746,7 +2747,7 @@
       <c r="J40" t="s">
         <v>20</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>44200</v>
       </c>
       <c r="L40">
@@ -2759,7 +2760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2790,7 +2791,7 @@
       <c r="J41" t="s">
         <v>20</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>44201</v>
       </c>
       <c r="L41">
@@ -2803,7 +2804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2834,7 +2835,7 @@
       <c r="J42" t="s">
         <v>20</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>44202</v>
       </c>
       <c r="L42">
@@ -2847,7 +2848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2878,7 +2879,7 @@
       <c r="J43" t="s">
         <v>20</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>44568</v>
       </c>
       <c r="L43">
@@ -2891,7 +2892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2922,7 +2923,7 @@
       <c r="J44" t="s">
         <v>20</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>44569</v>
       </c>
       <c r="L44">
@@ -2935,7 +2936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2966,7 +2967,7 @@
       <c r="J45" t="s">
         <v>20</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>44570</v>
       </c>
       <c r="L45">
@@ -2979,7 +2980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3010,7 +3011,7 @@
       <c r="J46" t="s">
         <v>20</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>44571</v>
       </c>
       <c r="L46">
@@ -3023,7 +3024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3054,7 +3055,7 @@
       <c r="J47" t="s">
         <v>20</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>44572</v>
       </c>
       <c r="L47">
@@ -3067,7 +3068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3098,7 +3099,7 @@
       <c r="J48" t="s">
         <v>20</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>44573</v>
       </c>
       <c r="L48">
@@ -3111,7 +3112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3142,7 +3143,7 @@
       <c r="J49" t="s">
         <v>20</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>44939</v>
       </c>
       <c r="L49">
@@ -3155,7 +3156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3186,7 +3187,7 @@
       <c r="J50" t="s">
         <v>20</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>44940</v>
       </c>
       <c r="L50">
@@ -3199,7 +3200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3230,7 +3231,7 @@
       <c r="J51" t="s">
         <v>20</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="1">
         <v>44941</v>
       </c>
       <c r="L51">
@@ -3243,7 +3244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3274,7 +3275,7 @@
       <c r="J52" t="s">
         <v>20</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="1">
         <v>44942</v>
       </c>
       <c r="L52">
@@ -3287,7 +3288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3318,7 +3319,7 @@
       <c r="J53" t="s">
         <v>20</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="1">
         <v>44943</v>
       </c>
       <c r="L53">
@@ -3331,7 +3332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3362,7 +3363,7 @@
       <c r="J54" t="s">
         <v>20</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="1">
         <v>44944</v>
       </c>
       <c r="L54">
@@ -3375,7 +3376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3406,7 +3407,7 @@
       <c r="J55" t="s">
         <v>20</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="1">
         <v>44945</v>
       </c>
       <c r="L55">
@@ -3419,7 +3420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3450,7 +3451,7 @@
       <c r="J56" t="s">
         <v>20</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="1">
         <v>44946</v>
       </c>
       <c r="L56">
@@ -3463,7 +3464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3494,7 +3495,7 @@
       <c r="J57" t="s">
         <v>20</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="1">
         <v>44947</v>
       </c>
       <c r="L57">
@@ -3507,7 +3508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3538,7 +3539,7 @@
       <c r="J58" t="s">
         <v>20</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="1">
         <v>44948</v>
       </c>
       <c r="L58">
@@ -3551,7 +3552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3582,7 +3583,7 @@
       <c r="J59" t="s">
         <v>20</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="1">
         <v>44949</v>
       </c>
       <c r="L59">
